--- a/AS04/1. Documentos/cargaBancoDeDados.xlsx
+++ b/AS04/1. Documentos/cargaBancoDeDados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PESSOA" sheetId="1" state="visible" r:id="rId2"/>
@@ -398,8 +398,8 @@
   </sheetPr>
   <dimension ref="A2:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,7 +410,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="153.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="160.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -457,8 +457,8 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (", A3, ", " , "'" , B3, "'" ,", ", "'" , C3, "'" ,", ", "'" , D3, "'" ,", ", "'" , E3, "'" ,", ", "'" , F3, "'" ,"",");")</f>
-        <v>Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (1, 'Saulo Calixto', 'saulo@gmail.com', '28433978047', '1990-09-17', 'Rua Vitoria Régia n 30');</v>
+        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (", A3, ", " , "'" , B3, "'" ,", ", "'" , C3, "'" ,", ", "'" , D3, "'" ,", ", "'" , E3, "'" ,", ", "'" , F3, "'" ,"",");")</f>
+        <v>Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (1, 'Saulo Calixto', 'saulo@gmail.com', '28433978047', '1990-09-17', 'Rua Vitoria Régia n 30');</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -493,8 +493,8 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (", A4, ", " , "'" , B4, "'" ,", ", "'" , C4, "'" ,", ", "'" , D4, "'" ,", ", "'" , E4, "'" ,", ", "'" , F4, "'" ,"",");")</f>
-        <v>Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (2, 'Cezar Calixto', 'cezar@gmail.com', '14723602062', '1990-09-18', 'Rua Vitoria Régia n 31');</v>
+        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (", A4, ", " , "'" , B4, "'" ,", ", "'" , C4, "'" ,", ", "'" , D4, "'" ,", ", "'" , E4, "'" ,", ", "'" , F4, "'" ,"",");")</f>
+        <v>Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (2, 'Cezar Calixto', 'cezar@gmail.com', '14723602062', '1990-09-18', 'Rua Vitoria Régia n 31');</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -529,8 +529,8 @@
         <v>18</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (", A5, ", " , "'" , B5, "'" ,", ", "'" , C5, "'" ,", ", "'" , D5, "'" ,", ", "'" , E5, "'" ,", ", "'" , F5, "'" ,"",");")</f>
-        <v>Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (3, 'Gessika Mikaele', 'gessika@gmail.com', '90400606062', '1990-09-19', 'Rua Vitoria Régia n 32');</v>
+        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (", A5, ", " , "'" , B5, "'" ,", ", "'" , C5, "'" ,", ", "'" , D5, "'" ,", ", "'" , E5, "'" ,", ", "'" , F5, "'" ,"",");")</f>
+        <v>Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (3, 'Gessika Mikaele', 'gessika@gmail.com', '90400606062', '1990-09-19', 'Rua Vitoria Régia n 32');</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -565,8 +565,8 @@
         <v>22</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (", A6, ", " , "'" , B6, "'" ,", ", "'" , C6, "'" ,", ", "'" , D6, "'" ,", ", "'" , E6, "'" ,", ", "'" , F6, "'" ,"",");")</f>
-        <v>Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (4, 'Amanda Pereira', 'amanda@gmail.com', '61606806092', '1990-09-20', 'Rua Vitoria Régia n 33');</v>
+        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (", A6, ", " , "'" , B6, "'" ,", ", "'" , C6, "'" ,", ", "'" , D6, "'" ,", ", "'" , E6, "'" ,", ", "'" , F6, "'" ,"",");")</f>
+        <v>Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (4, 'Amanda Pereira', 'amanda@gmail.com', '61606806092', '1990-09-20', 'Rua Vitoria Régia n 33');</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -601,8 +601,8 @@
         <v>26</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (", A7, ", " , "'" , B7, "'" ,", ", "'" , C7, "'" ,", ", "'" , D7, "'" ,", ", "'" , E7, "'" ,", ", "'" , F7, "'" ,"",");")</f>
-        <v>Insert into PESSOA (ID, NOME, CPF, DATANASCIMENTO, ENDERECO) Values (5, 'Valkiria Pereira', 'val@gmail.com', '35429995045', '1990-09-21', 'Rua Vitoria Régia n 34');</v>
+        <f aca="false">CONCATENATE("Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (", A7, ", " , "'" , B7, "'" ,", ", "'" , C7, "'" ,", ", "'" , D7, "'" ,", ", "'" , E7, "'" ,", ", "'" , F7, "'" ,"",");")</f>
+        <v>Insert into PESSOA (ID, NOME, EMAIL,CPF, DATANASCIMENTO, ENDERECO) Values (5, 'Valkiria Pereira', 'val@gmail.com', '35429995045', '1990-09-21', 'Rua Vitoria Régia n 34');</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -642,7 +642,7 @@
   </sheetPr>
   <dimension ref="A2:V28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
